--- a/changeB_worst.xlsx
+++ b/changeB_worst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liza\university2year\sem4\MethV\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507696D8-DE14-4044-B529-CF46D4F51CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A1D982-0767-4E5F-B6E2-FB6D30F76EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> matrix change b</a:t>
+              <a:t> matrix change b obusl = 4.6</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>

--- a/changeB_worst.xlsx
+++ b/changeB_worst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Liza\university2year\sem4\MethV\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A1D982-0767-4E5F-B6E2-FB6D30F76EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B49A43-74B2-47AE-8E01-CCED5C792006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> matrix change b obusl = 4.6</a:t>
+              <a:t> matrix change b obusl = 4.81</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -187,64 +187,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>1.43932E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>2.8786300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>4.3179500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>5.7572600000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>7.1965799999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>8.6358900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35</c:v>
+                  <c:v>0.10075199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.115145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45</c:v>
+                  <c:v>0.12953799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.143932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.15832499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6</c:v>
+                  <c:v>0.17271800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65</c:v>
+                  <c:v>0.187111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7</c:v>
+                  <c:v>0.20150399999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.75</c:v>
+                  <c:v>0.21589700000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8</c:v>
+                  <c:v>0.230291</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.85</c:v>
+                  <c:v>0.24468400000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9</c:v>
+                  <c:v>0.259077</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95</c:v>
+                  <c:v>0.27346999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.28786299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,64 +256,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2050800000000001E-4</c:v>
+                  <c:v>1.2570599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4101600000000001E-4</c:v>
+                  <c:v>2.5141199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6152500000000002E-4</c:v>
+                  <c:v>3.7711799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8203299999999998E-4</c:v>
+                  <c:v>5.0282399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0254099999999995E-4</c:v>
+                  <c:v>6.2852900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2304900000000002E-4</c:v>
+                  <c:v>7.5423500000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4355699999999999E-4</c:v>
+                  <c:v>8.7994100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6406599999999997E-4</c:v>
+                  <c:v>0.100565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.08457E-3</c:v>
+                  <c:v>0.113135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2050800000000001E-3</c:v>
+                  <c:v>0.12570600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.32559E-3</c:v>
+                  <c:v>0.13827600000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4461000000000001E-3</c:v>
+                  <c:v>0.15084700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.56661E-3</c:v>
+                  <c:v>0.16341800000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6871099999999999E-3</c:v>
+                  <c:v>0.17598800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.80762E-3</c:v>
+                  <c:v>0.188559</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9281299999999999E-3</c:v>
+                  <c:v>0.201129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.04864E-3</c:v>
+                  <c:v>0.2137</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1691499999999999E-3</c:v>
+                  <c:v>0.226271</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2896599999999998E-3</c:v>
+                  <c:v>0.238841</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4101600000000002E-3</c:v>
+                  <c:v>0.25141200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1484,162 +1484,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>0.05</v>
+        <v>1.43932E-2</v>
       </c>
       <c r="B2">
-        <v>1.2050800000000001E-4</v>
+        <v>1.2570599999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>0.1</v>
+        <v>2.8786300000000001E-2</v>
       </c>
       <c r="B3">
-        <v>2.4101600000000001E-4</v>
+        <v>2.5141199999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>0.15</v>
+        <v>4.3179500000000003E-2</v>
       </c>
       <c r="B4">
-        <v>3.6152500000000002E-4</v>
+        <v>3.7711799999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>0.2</v>
+        <v>5.7572600000000002E-2</v>
       </c>
       <c r="B5">
-        <v>4.8203299999999998E-4</v>
+        <v>5.0282399999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>0.25</v>
+        <v>7.1965799999999996E-2</v>
       </c>
       <c r="B6">
-        <v>6.0254099999999995E-4</v>
+        <v>6.2852900000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>0.3</v>
+        <v>8.6358900000000002E-2</v>
       </c>
       <c r="B7">
-        <v>7.2304900000000002E-4</v>
+        <v>7.5423500000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>0.35</v>
+        <v>0.10075199999999999</v>
       </c>
       <c r="B8">
-        <v>8.4355699999999999E-4</v>
+        <v>8.7994100000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>0.4</v>
+        <v>0.115145</v>
       </c>
       <c r="B9">
-        <v>9.6406599999999997E-4</v>
+        <v>0.100565</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>0.45</v>
+        <v>0.12953799999999999</v>
       </c>
       <c r="B10">
-        <v>1.08457E-3</v>
+        <v>0.113135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>0.5</v>
+        <v>0.143932</v>
       </c>
       <c r="B11">
-        <v>1.2050800000000001E-3</v>
+        <v>0.12570600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>0.55000000000000004</v>
+        <v>0.15832499999999999</v>
       </c>
       <c r="B12">
-        <v>1.32559E-3</v>
+        <v>0.13827600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>0.6</v>
+        <v>0.17271800000000001</v>
       </c>
       <c r="B13">
-        <v>1.4461000000000001E-3</v>
+        <v>0.15084700000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>0.65</v>
+        <v>0.187111</v>
       </c>
       <c r="B14">
-        <v>1.56661E-3</v>
+        <v>0.16341800000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>0.7</v>
+        <v>0.20150399999999999</v>
       </c>
       <c r="B15">
-        <v>1.6871099999999999E-3</v>
+        <v>0.17598800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>0.75</v>
+        <v>0.21589700000000001</v>
       </c>
       <c r="B16">
-        <v>1.80762E-3</v>
+        <v>0.188559</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>0.8</v>
+        <v>0.230291</v>
       </c>
       <c r="B17">
-        <v>1.9281299999999999E-3</v>
+        <v>0.201129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>0.85</v>
+        <v>0.24468400000000001</v>
       </c>
       <c r="B18">
-        <v>2.04864E-3</v>
+        <v>0.2137</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>0.9</v>
+        <v>0.259077</v>
       </c>
       <c r="B19">
-        <v>2.1691499999999999E-3</v>
+        <v>0.226271</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>0.95</v>
+        <v>0.27346999999999999</v>
       </c>
       <c r="B20">
-        <v>2.2896599999999998E-3</v>
+        <v>0.238841</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>1</v>
+        <v>0.28786299999999998</v>
       </c>
       <c r="B21">
-        <v>2.4101600000000002E-3</v>
+        <v>0.25141200000000002</v>
       </c>
     </row>
   </sheetData>
